--- a/Data/Vanilla Expanded/Vanilla Psycasts Expanded - Hemosage - 2990596478/2990596478.xlsx
+++ b/Data/Vanilla Expanded/Vanilla Psycasts Expanded - Hemosage - 2990596478/2990596478.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\RimWorld\Mods\Local Translations\Data\Vanilla Psycasts Expanded - Hemosage - 2990596478\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjmi0\Desktop\림월드 번역\Vanilla Psycasts Expanded - Hemosage - 2990596478\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6293C48-91A0-4B41-A300-474E2833489E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36D0BB4-6DF7-4B3A-A0CA-7D6029B049AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>bjmi0</author>
+  </authors>
+  <commentList>
+    <comment ref="D52" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-01-07에 새로 추가된 노드들 (6개)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E52" authorId="0" shapeId="0" xr:uid="{3FC1333B-5842-4D76-95AF-B771C99A46FB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-01-07에 새로 추가된 노드들 (6개)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="225">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -56,6 +92,19 @@
     <t>VFECore.Abilities.AbilityDef+VPEH_Bloodfocus.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rimgaller1 [Not chosen]</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VFECore.Abilities.AbilityDef</t>
   </si>
   <si>
@@ -68,6 +117,9 @@
     <t>pakageID</t>
   </si>
   <si>
+    <t>혈집중</t>
+  </si>
+  <si>
     <t>VFECore.Abilities.AbilityDef+VPEH_Bloodfocus.description</t>
   </si>
   <si>
@@ -92,6 +144,22 @@
     <t>modName (folderName)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>혈정</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>예불</t>
+  </si>
+  <si>
     <t>VFECore.Abilities.AbilityDef+VPEH_BloodShard.description</t>
   </si>
   <si>
@@ -101,6 +169,9 @@
     <t>Launch a small amount of excess blood as a lethal projectile by forcibly expelling hemogen that has been solidified into a crystalline structure.</t>
   </si>
   <si>
+    <t>결정 구조로 굳어진 혈액정수를 발사해 죽음에 이를 정도로 만듭니다.</t>
+  </si>
+  <si>
     <t>Vanilla Psycasts Expanded - Hemosage - 2990596478</t>
   </si>
   <si>
@@ -113,6 +184,9 @@
     <t>blood spew</t>
   </si>
   <si>
+    <t>각혈</t>
+  </si>
+  <si>
     <t>VFECore.Abilities.AbilityDef+VPEH_BloodSpew.description</t>
   </si>
   <si>
@@ -131,6 +205,22 @@
     <t>close wounds</t>
   </si>
   <si>
+    <t>아무는 상처</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>봉합</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VFECore.Abilities.AbilityDef+VPEH_CloseWounds.description</t>
   </si>
   <si>
@@ -140,6 +230,22 @@
     <t>Forcibly move excess blood to stop any ongoing bleeding. However, it does not actually heal.</t>
   </si>
   <si>
+    <t>많은 혈액을 강제로 이동시켜 진행 중인 출혈을 막습니다. 하지만 치료되는 효과는 없습니다.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>많은 혈액을 강제로 이동시켜 진행 중인 출혈을 막습니다. 하지만 치료 효과는 없습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VFECore.Abilities.AbilityDef+VPEH_Hemodrain.label</t>
   </si>
   <si>
@@ -149,6 +255,22 @@
     <t>hemodrain</t>
   </si>
   <si>
+    <t>채혈</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>정수 강탈</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VFECore.Abilities.AbilityDef+VPEH_Hemodrain.description</t>
   </si>
   <si>
@@ -167,6 +289,9 @@
     <t>corpse explosion</t>
   </si>
   <si>
+    <t>시체 폭발</t>
+  </si>
+  <si>
     <t>VFECore.Abilities.AbilityDef+VPEH_CorpseExplosion.description</t>
   </si>
   <si>
@@ -185,6 +310,9 @@
     <t>word of offering</t>
   </si>
   <si>
+    <t>공물의 전언</t>
+  </si>
+  <si>
     <t>VFECore.Abilities.AbilityDef+VPEH_WordofOffering.description</t>
   </si>
   <si>
@@ -194,6 +322,9 @@
     <t>Convinces the target to offer their blood to the caster. Can be used on visitors or even during combat.</t>
   </si>
   <si>
+    <t>대상이 시전자에게 피를 바치도록 만듭니다. 방문객 혹은 전투 중에도 사용할 수 있습니다.</t>
+  </si>
+  <si>
     <t>VFECore.Abilities.AbilityDef+VPEH_SanguineSpear.label</t>
   </si>
   <si>
@@ -203,12 +334,44 @@
     <t>sanguine spear</t>
   </si>
   <si>
+    <t>천혈</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>생귄의 창</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VFECore.Abilities.AbilityDef+VPEH_SanguineSpear.description</t>
   </si>
   <si>
     <t>VPEH_SanguineSpear.description</t>
   </si>
   <si>
+    <t>대상을 향해 기밀 구조로 만들어진 피의 창을 발사하여 피해를 입히고 핏빛안개 폭발을 일으킵니다. 데미지는 시전자의 혈액정수 수준에 따라 달라집니다.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Launches a pressurized spear of blood over to the target, damaging the target and creating a bloodmist explosion. Damage depends on the caster's hemogen level.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VFECore.Abilities.AbilityDef+VPEH_BloodRite.label</t>
   </si>
   <si>
@@ -218,487 +381,598 @@
     <t>blood rite</t>
   </si>
   <si>
+    <t>핏빛 의례</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>피의 제례</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VFECore.Abilities.AbilityDef+VPEH_BloodRite.description</t>
   </si>
   <si>
     <t>VPEH_BloodRite.description</t>
   </si>
   <si>
+    <t>VFECore.Abilities.AbilityDef+VPEH_Bloodstorm.label</t>
+  </si>
+  <si>
+    <t>VPEH_Bloodstorm.label</t>
+  </si>
+  <si>
+    <t>bloodstorm</t>
+  </si>
+  <si>
+    <t>혈풍</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>혈류 폭풍</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>VFECore.Abilities.AbilityDef+VPEH_Bloodstorm.description</t>
+  </si>
+  <si>
+    <t>VPEH_Bloodstorm.description</t>
+  </si>
+  <si>
+    <t>Creates a downpour of blood, inflicting non-hemogenic individuals with bloodmist, causing intense vomiting. Sanguophages instead regenerate hemogen, and don’t gain psychic heat when casting any psycasts under the effects of bloodstorm.</t>
+  </si>
+  <si>
+    <t>ThingDef+VPEH_BloodShard.label</t>
+  </si>
+  <si>
+    <t>ThingDef</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ThingDef+VPEH_BloodSpew.label</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThingDef+VPEH_SanguineSpear.label</t>
+  </si>
+  <si>
+    <t>HediffDef+VPEH_Bloodfocus.label</t>
+  </si>
+  <si>
+    <t>HediffDef</t>
+  </si>
+  <si>
+    <t>Bloodfocus</t>
+  </si>
+  <si>
+    <t>Rapidly regenerating psyfocus at the cost of hemogen.</t>
+  </si>
+  <si>
+    <t>HediffDef+VPEH_Bloodfocus.description</t>
+  </si>
+  <si>
+    <t>HediffDef+VPEH_Bloodmist.label</t>
+  </si>
+  <si>
+    <t>VPEH_Bloodmist.label</t>
+  </si>
+  <si>
+    <t>Bloodmist</t>
+  </si>
+  <si>
+    <t>핏빛 안개</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>피안개</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>HediffDef+VPEH_Bloodmist.description</t>
+  </si>
+  <si>
+    <t>VPEH_Bloodmist.description</t>
+  </si>
+  <si>
+    <t>A special sanguophage particle is blocking the airways and causes intense vomiting.</t>
+  </si>
+  <si>
+    <t>특별한 생귀오파지의 입자가 기도를 막고 심한 구토를 유발시킵니다.</t>
+  </si>
+  <si>
+    <t>HediffDef+VPEH_BloodRite.label</t>
+  </si>
+  <si>
+    <t>Psychic sensitivity is amplified by the current hemogen level.</t>
+  </si>
+  <si>
+    <t>HediffDef+VPEH_BloodRite.description</t>
+  </si>
+  <si>
+    <t>MeditationFocusDef+VPEH_Deathrest.label</t>
+  </si>
+  <si>
+    <t>MeditationFocusDef</t>
+  </si>
+  <si>
+    <t>VPEH_Deathrest.label</t>
+  </si>
+  <si>
+    <t>deathrest</t>
+  </si>
+  <si>
+    <t>죽음안식</t>
+  </si>
+  <si>
+    <t>VanillaPsycastsExpanded.PsycasterPathDef+VPEH_Hemosage.label</t>
+  </si>
+  <si>
+    <t>VPEH_Hemosage.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VanillaPsycastsExpanded.PsycasterPathDef</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>hemosage</t>
+  </si>
+  <si>
+    <t>헤모사지</t>
+  </si>
+  <si>
+    <t>VanillaPsycastsExpanded.PsycasterPathDef+VPEH_Hemosage.description</t>
+  </si>
+  <si>
+    <t>VanillaPsycastsExpanded.PsycasterPathDef</t>
+  </si>
+  <si>
+    <t>Hemosages are powerful, elder psycasters that use their connection with an engine of evil and their bloody curse to inflict pain and manipulate matter in vile, wicked ways. Relying on hemogen, they can drain and leech life from everyone around them, instilling incredible pain and even worse nightmares. Only those that have access to the power of hemogen can become a true hemosage.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VanillaPsycastsExpanded.PsycasterPathDef+VPEH_Hemosage.tooltip</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VPEH_Hemosage.tooltip</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hemogenic only</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VanillaPsycastsExpanded.PsycasterPathDef+VPEH_Hemosage.lockedReason</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VPEH_Hemosage.lockedReason</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>흡혈종 전용</t>
+  </si>
+  <si>
+    <t>ThoughtDef+VPEH_SoakedInBlood.stages.0.label</t>
+  </si>
+  <si>
+    <t>ThoughtDef</t>
+  </si>
+  <si>
+    <t>VPEH_SoakedInBlood.stages.0.label</t>
+  </si>
+  <si>
+    <t>soaked in blood</t>
+  </si>
+  <si>
+    <t>피에 젖음</t>
+  </si>
+  <si>
+    <t>ThoughtDef+VPEH_SoakedInBlood.stages.0.description</t>
+  </si>
+  <si>
+    <t>VPEH_SoakedInBlood.stages.0.description</t>
+  </si>
+  <si>
+    <t>I'm soaking in blood.</t>
+  </si>
+  <si>
+    <t>난 피에 흠뻑 젖었어.</t>
+  </si>
+  <si>
+    <t>ThoughtDef+VPEH_SoakedInBlood.stages.1.label</t>
+  </si>
+  <si>
+    <t>VPEH_SoakedInBlood.stages.1.label</t>
+  </si>
+  <si>
+    <t>ThoughtDef+VPEH_SoakedInBlood.stages.1.description</t>
+  </si>
+  <si>
+    <t>VPEH_SoakedInBlood.stages.1.description</t>
+  </si>
+  <si>
+    <t>WeatherDef+VPEH_Bloodstorm.label</t>
+  </si>
+  <si>
+    <t>WeatherDef</t>
+  </si>
+  <si>
+    <t>Mystical downpour of blood, caused by forbidden hemosage psycast. While non-hemogenic individuals are choking on blood, sanguophages regenerate hemogen and can cast psycasts without worrying about psychic heat.</t>
+  </si>
+  <si>
+    <t>WeatherDef+VPEH_Bloodstorm.description</t>
+  </si>
+  <si>
+    <t>Keyed+VPEH.DeathrestBuilding</t>
+  </si>
+  <si>
+    <t>Keyed</t>
+  </si>
+  <si>
+    <t>VPEH.DeathrestBuilding</t>
+  </si>
+  <si>
+    <t>Is a deathrest building.</t>
+  </si>
+  <si>
+    <t>죽음 안식 건물입니다.</t>
+  </si>
+  <si>
+    <t>Keyed+VPEH.DeathrestBuildingsNearby</t>
+  </si>
+  <si>
+    <t>VPEH.DeathrestBuildingsNearby</t>
+  </si>
+  <si>
+    <t>{0} deathrest buildings nearby.</t>
+  </si>
+  <si>
+    <t>근처에 {0}개의 죽음 안식 건물이 있습니다.</t>
+  </si>
+  <si>
+    <t>Keyed+VPEH.HemogenTooLow</t>
+  </si>
+  <si>
+    <t>VPEH.HemogenTooLow</t>
+  </si>
+  <si>
+    <t>Hemogen is too low. Minimum {0} is required.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>혈액정수가 너무 적습니다. 최소 {0}(이)가 필요합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keyed+VPEH.MustBeNotDessicated</t>
+  </si>
+  <si>
+    <t>VPEH.MustBeNotDessicated</t>
+  </si>
+  <si>
+    <t>Corpse must be not dessicated.</t>
+  </si>
+  <si>
+    <t>시체가 부패되어서는 안됩니다.</t>
+  </si>
+  <si>
+    <t>Keyed+VPEH.OnlyNonHemogenic</t>
+  </si>
+  <si>
+    <t>VPEH.OnlyNonHemogenic</t>
+  </si>
+  <si>
+    <t>Cannot cast: target is hemogenic.</t>
+  </si>
+  <si>
+    <t>시전 불가: 대상이 흡혈인자입니다.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>시전 불가: 대상이 흡혈종입니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keyed+VPEH.CancelBloodfocus</t>
+  </si>
+  <si>
+    <t>VPEH.CancelBloodfocus</t>
+  </si>
+  <si>
+    <t>Cancel Bloodfocus</t>
+  </si>
+  <si>
+    <t>혈집중 취소</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>정수 집중 취소</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keyed+VPEH.CancelBloodfocusDesc</t>
+  </si>
+  <si>
+    <t>VPEH.CancelBloodfocusDesc</t>
+  </si>
+  <si>
+    <t>Click to cancel Bloodfocus on the caster.</t>
+  </si>
+  <si>
+    <t>클릭하여 시전자의 혈집중을 취소시킵니다.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>클릭하여 시전자의 정수 집중을 취소시킵니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keyed+VPEH.HemogenLetter</t>
+  </si>
+  <si>
+    <t>VPEH.HemogenLetter</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Keyed+VPEH.OnlyHumanlikes</t>
+  </si>
+  <si>
+    <t>VPEH.OnlyHumanlikes</t>
+  </si>
+  <si>
+    <t>Cannot cast: target is not human</t>
+  </si>
+  <si>
+    <t>VFECore.Abilities.AbilityDef+VPEH_Bloodstorm.modExtensions.3.message</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>시전 불가: 대상이 인간형이 아닙니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>VPEH_Bloodstorm.modExtensions.3.message</t>
+  </si>
+  <si>
+    <t>If you use bloodstorm, everyone in this local area will be affected by it, and you will lose goodwill with every non-hostile faction that currently is visiting this place.\n\nBloodstorm takes 10 seconds to cast, and cannot be interrupted. When complete, the rain of blood will fall everywhere, affecting both normal people and sanguophages.\n\nEveryone on the map except Sanguophages will be affected by blood mist, causing intense vomiting. Sanguophages will not generate Psychic heat when casting psycasts of any kind.\n\nDo you really want to cast bloodstorm?</t>
+  </si>
+  <si>
+    <t>ThingDef+VPEH_BloodmistMote.label</t>
+  </si>
+  <si>
+    <t>VPEH_BloodmistMote.label</t>
+  </si>
+  <si>
+    <t>Mote</t>
+  </si>
+  <si>
+    <t>ThingDef+VPEH_CorpseExplosion.label</t>
+  </si>
+  <si>
+    <t>ThingDef+VPE_PsycastAreaEffect_CorpseExplosion.label</t>
+  </si>
+  <si>
+    <t>VPE_PsycastAreaEffect_CorpseExplosion.label</t>
+  </si>
+  <si>
+    <t>ThingDef+VPEH_BloodRite.label</t>
+  </si>
+  <si>
+    <t>Keyed+VPEH.NoHemogenGene</t>
+  </si>
+  <si>
+    <t>VPEH.NoHemogenGene</t>
+  </si>
+  <si>
+    <t>Pawn does not have hemogen gene.</t>
+  </si>
+  <si>
+    <t>혈액술사</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상에게 혈액정수 유전자가 존재하지 않습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈액정수를 소모하면서 빠르게 초집중을 재생합니다.</t>
+  </si>
+  <si>
+    <t>대상에게 혈액정수의 미세한 안개를 내뿜어 끈적끈적하고 구역질나는 피를 묻힙니다. 영향을 받은 사람들이 심한 구토로 고통을 받게 만듭니다.</t>
+  </si>
+  <si>
+    <t>대상에게 혈액정수의 미세한 안개를 내뿜고 끈적끈적하고 구역질나는 피를 묻힙니다. 영향을 받은 사람들이 심한 구토로 고통을 받게 만듭니다.</t>
+  </si>
+  <si>
+    <t>먼 거리에서 대상의 혈액을 강제로 추출하여 혈액정수로 변환시킵니다. 실용적이나 비효율적입니다.</t>
+  </si>
+  <si>
+    <t>먼 거리에서 대상의 혈액을 강제로 추출하여 혈액정수로 변환시킵니다. 실용적이긴 하나 비효율적입니다.</t>
+  </si>
+  <si>
+    <t>혈액정수를 사용하여 시체의 혈액을 자극시켜, 피해를 입히지는 않지만 구토를 유발하는 짙은 안개를 덮습니다. 영향을 받은 사람들이 심한 구토로 고통을 받게 만듭니다.</t>
+  </si>
+  <si>
+    <t>혈액정수를 사용하여 시체의 혈액을 자극시켜 피해를 입히지는 않지만 구토를 유발하는 짙은 안개를 덮습니다. 영향을 받은 사람들이 심한 구토로 고통을 받게 만듭니다.</t>
+  </si>
+  <si>
+    <t>정신 감응력은 현재의 혈액정수 수준에 따라 증폭됩니다.</t>
+  </si>
+  <si>
+    <t>피로 만들어진 폭풍을 소환하여 흡혈인자가 없는 사람에게 강력한 구토를 유발시킵니다. 생귀오파지는 대신 혈액정수를 재생하고, 혈풍의 영향을 받는 상태에서는 초능력을 시전할 때 신경열을 얻지 않습니다.</t>
+  </si>
+  <si>
+    <t>혈액술사는 내면의 악성과 피의 저주를 융합시켜, 끔찍하고 사악한 방식으로 고통을 주거나 물질을 조작하는 강력하고 노련한 초능력자입니다. 주변으로부터 혈액정수를 빼앗아 극도의 고통과 악몽을 심어줄 수 있습니다. 정수의 힘에 닿을 수 있는 자들만이 혈액술사가 될 자격이 있습니다.</t>
+  </si>
+  <si>
+    <t>혈액정수가 너무 적습니다. 최소 {0}이(가) 필요합니다.</t>
+  </si>
+  <si>
+    <t>혈류 폭풍</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈류 폭풍을 사용하면 이 지역에 있는 모든 이들이 그 영향을 받게 되며, 현재 이곳을 방문 중인 모든 비적대적 세력과의 우호도가 하락합니다.\n\n혈류 폭풍은 10초에 걸쳐 시전되며, 시전 중에는 취소할 수 없습니다. 시전이 완료되면 핏빛 비가 온 사방에 내려 일반인과 생귀오파지 모두에게 영향을 미칩니다.\n\n생귀오파지를 제외하고 맵 상의 모든 이들은 피 안개로 인해 심한 구토 증세를 겪게 됩니다. 생귀오파지는 이 동안 어떤 종류의 초능력을 사용하더라도 신경열이 발생하지 않습니다.\n\n정말로 혈류 폭풍을 사용하시겠습니까?</t>
+  </si>
+  <si>
+    <t>혈액 집중</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈액정수를 소모해 초집중을 빠르게 재생합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상을 향해 응축된 피의 창을 발사하여 피해를 입히고 피안개 폭발을 일으킵니다. 데미지는 시전자의 혈액정수 수준에 따라 달라집니다.</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Creates a mote of hemogen that follows the caster, acting as an amplifier for psychic sensitivity based on the caster’s current hemogen level.</t>
-  </si>
-  <si>
-    <t>VFECore.Abilities.AbilityDef+VPEH_Bloodstorm.label</t>
-  </si>
-  <si>
-    <t>VPEH_Bloodstorm.label</t>
-  </si>
-  <si>
-    <t>bloodstorm</t>
-  </si>
-  <si>
-    <t>VFECore.Abilities.AbilityDef+VPEH_Bloodstorm.description</t>
-  </si>
-  <si>
-    <t>VPEH_Bloodstorm.description</t>
-  </si>
-  <si>
-    <t>Creates a downpour of blood, inflicting non-hemogenic individuals with bloodmist, causing intense vomiting. Sanguophages instead regenerate hemogen, and don’t gain psychic heat when casting any psycasts under the effects of bloodstorm.</t>
-  </si>
-  <si>
-    <t>ThingDef+VPEH_BloodShard.label</t>
-  </si>
-  <si>
-    <t>ThingDef</t>
-  </si>
-  <si>
-    <t>ThingDef+VPEH_SanguineSpear.label</t>
-  </si>
-  <si>
-    <t>HediffDef+VPEH_Bloodfocus.label</t>
-  </si>
-  <si>
-    <t>HediffDef</t>
-  </si>
-  <si>
-    <t>Bloodfocus</t>
-  </si>
-  <si>
-    <t>HediffDef+VPEH_Bloodfocus.description</t>
-  </si>
-  <si>
-    <t>Rapidly regenerating psyfocus at the cost of hemogen.</t>
-  </si>
-  <si>
-    <t>HediffDef+VPEH_Bloodmist.label</t>
-  </si>
-  <si>
-    <t>VPEH_Bloodmist.label</t>
-  </si>
-  <si>
-    <t>Bloodmist</t>
-  </si>
-  <si>
-    <t>HediffDef+VPEH_Bloodmist.description</t>
-  </si>
-  <si>
-    <t>VPEH_Bloodmist.description</t>
-  </si>
-  <si>
-    <t>A special sanguophage particle is blocking the airways and causes intense vomiting.</t>
-  </si>
-  <si>
-    <t>HediffDef+VPEH_BloodRite.label</t>
-  </si>
-  <si>
-    <t>HediffDef+VPEH_BloodRite.description</t>
-  </si>
-  <si>
-    <t>Psychic sensitivity is amplified by the current hemogen level.</t>
-  </si>
-  <si>
-    <t>MeditationFocusDef+VPEH_Deathrest.label</t>
-  </si>
-  <si>
-    <t>MeditationFocusDef</t>
-  </si>
-  <si>
-    <t>VPEH_Deathrest.label</t>
-  </si>
-  <si>
-    <t>deathrest</t>
-  </si>
-  <si>
-    <t>VanillaPsycastsExpanded.PsycasterPathDef+VPEH_Hemosage.label</t>
-  </si>
-  <si>
-    <t>VanillaPsycastsExpanded.PsycasterPathDef</t>
-  </si>
-  <si>
-    <t>VPEH_Hemosage.label</t>
-  </si>
-  <si>
-    <t>hemosage</t>
-  </si>
-  <si>
-    <t>VanillaPsycastsExpanded.PsycasterPathDef+VPEH_Hemosage.description</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시전자를 따라다니는 작은 혈액정수 덩어리를 소환합니다. 혈액정수 덩어리는 시전자의 현재 혈액정수 수준에 따라 정신 감응력을 증폭합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>VPEH_Hemosage.description</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤모사지는 혈마법의 달인으로 독특한 초능력을 쓰기 위한 자원으로 혈액정수를 사용합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Hemosages are masters of blood magic that use hemogen as a resource to cast unique psycasts.</t>
-  </si>
-  <si>
-    <t>ThoughtDef+VPEH_SoakedInBlood.stages.0.label</t>
-  </si>
-  <si>
-    <t>ThoughtDef</t>
-  </si>
-  <si>
-    <t>VPEH_SoakedInBlood.stages.0.label</t>
-  </si>
-  <si>
-    <t>soaked in blood</t>
-  </si>
-  <si>
-    <t>ThoughtDef+VPEH_SoakedInBlood.stages.0.description</t>
-  </si>
-  <si>
-    <t>VPEH_SoakedInBlood.stages.0.description</t>
-  </si>
-  <si>
-    <t>I'm soaking in blood.</t>
-  </si>
-  <si>
-    <t>ThoughtDef+VPEH_SoakedInBlood.stages.1.label</t>
-  </si>
-  <si>
-    <t>VPEH_SoakedInBlood.stages.1.label</t>
-  </si>
-  <si>
-    <t>ThoughtDef+VPEH_SoakedInBlood.stages.1.description</t>
-  </si>
-  <si>
-    <t>VPEH_SoakedInBlood.stages.1.description</t>
-  </si>
-  <si>
-    <t>WeatherDef+VPEH_Bloodstorm.label</t>
-  </si>
-  <si>
-    <t>WeatherDef</t>
-  </si>
-  <si>
-    <t>WeatherDef+VPEH_Bloodstorm.description</t>
-  </si>
-  <si>
-    <t>Mystical downpour of blood, caused by forbidden hemosage psycast. While non-hemogenic individuals are choking on blood, sanguophages regenerate hemogen and can cast psycasts without worrying about psychic heat.</t>
-  </si>
-  <si>
-    <t>Keyed+VPEH.DeathrestBuilding</t>
-  </si>
-  <si>
-    <t>Keyed</t>
-  </si>
-  <si>
-    <t>VPEH.DeathrestBuilding</t>
-  </si>
-  <si>
-    <t>Is a deathrest building.</t>
-  </si>
-  <si>
-    <t>Keyed+VPEH.DeathrestBuildingsNearby</t>
-  </si>
-  <si>
-    <t>VPEH.DeathrestBuildingsNearby</t>
-  </si>
-  <si>
-    <t>{0} deathrest buildings nearby.</t>
-  </si>
-  <si>
-    <t>Keyed+VPEH.HemogenTooLow</t>
-  </si>
-  <si>
-    <t>VPEH.HemogenTooLow</t>
-  </si>
-  <si>
-    <t>Hemogen is too low. Minimum {0} is required.</t>
-  </si>
-  <si>
-    <t>Keyed+VPEH.MustBeNotDessicated</t>
-  </si>
-  <si>
-    <t>VPEH.MustBeNotDessicated</t>
-  </si>
-  <si>
-    <t>Corpse must be not dessicated.</t>
-  </si>
-  <si>
-    <t>Keyed+VPEH.OnlyNonHemogenic</t>
-  </si>
-  <si>
-    <t>VPEH.OnlyNonHemogenic</t>
-  </si>
-  <si>
-    <t>Cannot cast: target is hemogenic.</t>
-  </si>
-  <si>
-    <t>Keyed+VPEH.CancelBloodfocus</t>
-  </si>
-  <si>
-    <t>VPEH.CancelBloodfocus</t>
-  </si>
-  <si>
-    <t>Cancel Bloodfocus</t>
-  </si>
-  <si>
-    <t>Keyed+VPEH.CancelBloodfocusDesc</t>
-  </si>
-  <si>
-    <t>VPEH.CancelBloodfocusDesc</t>
-  </si>
-  <si>
-    <t>Click to cancel Bloodfocus on the caster.</t>
-  </si>
-  <si>
-    <t>Keyed+VPEH.HemogenLetter</t>
-  </si>
-  <si>
-    <t>VPEH.HemogenLetter</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>Keyed+VPEH.OnlyHumanlikes</t>
-  </si>
-  <si>
-    <t>VPEH.OnlyHumanlikes</t>
-  </si>
-  <si>
-    <t>Cannot cast: target is not human</t>
-  </si>
-  <si>
-    <t>VPEH_Hemosage.tooltip</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>VPEH_Hemosage.lockedReason</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>VanillaPsycastsExpanded.PsycasterPathDef+VPEH_Hemosage.tooltip</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>VanillaPsycastsExpanded.PsycasterPathDef+VPEH_Hemosage.lockedReason</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hemosages are powerful, elder psycasters that use their connection with an engine of evil and their bloody curse to inflict pain and manipulate matter in vile, wicked ways. Relying on hemogen, they can drain and leech life from everyone around them, instilling incredible pain and even worse nightmares. Only those that have access to the power of hemogen can become a true hemosage.</t>
-  </si>
-  <si>
-    <t>Hemogenic only</t>
-  </si>
-  <si>
-    <t>VanillaPsycastsExpanded.PsycasterPathDef</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>혈액 정수를 소모하면서 빠르게 초집중을 재생합니다.</t>
-  </si>
-  <si>
-    <t>혈집중</t>
-  </si>
-  <si>
-    <t>특별한 생귀오파지의 입자가 기도를 막고 심한 구토를 유발시킵니다.</t>
-  </si>
-  <si>
-    <t>핏빛 안개</t>
-  </si>
-  <si>
-    <t>정신 감응력은 현재의 혈액 정수 수준에 따라 증폭됩니다.</t>
-  </si>
-  <si>
-    <t>핏빛 의례</t>
-  </si>
-  <si>
-    <t>죽음안식</t>
-  </si>
-  <si>
-    <t>예불</t>
-  </si>
-  <si>
-    <t>천혈</t>
-  </si>
-  <si>
-    <t>난 피에 흠뻑 젖었어.</t>
-  </si>
-  <si>
-    <t>피에 젖음</t>
-  </si>
-  <si>
-    <t>결정 구조로 굳어진 혈액정수를 발사해 죽음에 이를 정도로 만듭니다.</t>
-  </si>
-  <si>
-    <t>대상에게 혈액 정수의 미세한 안개를 내뿜고 끈적끈적하고 구역질나는 피를 묻힙니다. 영향을 받은 사람들이 심한 구토로 고통을 받게 만듭니다.</t>
-  </si>
-  <si>
-    <t>각혈</t>
-  </si>
-  <si>
-    <t>피로 만들어진 폭풍을 소환하여 흡혈인자가 없는 사람에게 강력한 구토를 유발시킵니다. 생귀오파지는 대신 혈액 정수를 재생하고, 혈풍의 영향을 받는 상태에서는 초능력을 시전할 때 신경열을 얻지 않습니다.</t>
-  </si>
-  <si>
-    <t>혈풍</t>
-  </si>
-  <si>
-    <t>많은 혈액을 강제로 이동시켜 진행 중인 출혈을 막습니다. 하지만 치료되는 효과는 없습니다.</t>
-  </si>
-  <si>
-    <t>아무는 상처</t>
-  </si>
-  <si>
-    <t>혈액 정수를 사용하여 시체의 혈액을 자극시켜 피해를 입히지는 않지만 구토를 유발하는 짙은 안개를 덮습니다. 영향을 받은 사람들이 심한 구토로 고통을 받게 만듭니다.</t>
-  </si>
-  <si>
-    <t>시체 폭발</t>
-  </si>
-  <si>
-    <t>먼 거리에서 대상의 혈액을 강제로 추출하여 혈액 정수로 변환시킵니다. 실용적이긴 하나 비효율적입니다.</t>
-  </si>
-  <si>
-    <t>채혈</t>
-  </si>
-  <si>
-    <t>대상을 향해 기밀 구조로 만들어진 피의 창을 발사하여 피해를 입히고 핏빛안개 폭발을 일으킵니다. 데미지는 시전자의 혈액정수 수준에 따라 달라집니다.</t>
-  </si>
-  <si>
-    <t>대상이 시전자에게 피를 바치도록 만듭니다. 방문객 혹은 전투 중에도 사용할 수 있습니다.</t>
-  </si>
-  <si>
-    <t>공물의 전언</t>
-  </si>
-  <si>
-    <t>Rimgaller1 [Not chosen]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>혈집중 취소</t>
-  </si>
-  <si>
-    <t>클릭하여 시전자의 혈집중을 취소시킵니다.</t>
-  </si>
-  <si>
-    <t>죽음 안식 건물입니다.</t>
-  </si>
-  <si>
-    <t>근처에 {0}개의 죽음 안식 건물이 있습니다.</t>
-  </si>
-  <si>
-    <t>혈액 정수가 너무 적습니다. 최소 {0}이(가) 필요합니다.</t>
-  </si>
-  <si>
-    <t>시체가 부패되어서는 안됩니다.</t>
-  </si>
-  <si>
-    <t>시전 불가: 대상이 흡혈인자입니다.</t>
-  </si>
-  <si>
-    <t>헤모사지</t>
-  </si>
-  <si>
-    <t>헤모사지는 혈마법의 달인으로 독특한 초능력을 쓰기 위한 자원으로 혈액 정수를 사용합니다.</t>
-  </si>
-  <si>
-    <t>정수 집중</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>피안개</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>피의 제례</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>정수 강탈</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>시전 불가: 대상이 흡혈종입니다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>정수 집중 취소</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>클릭하여 시전자의 정수 집중을 취소시킵니다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>시전 불가: 대상이 인간형이 아닙니다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>정신 감응력이 현재의 혈액 정수 수준에 따라 증폭됩니다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ThingDef+VPEH_BloodSpew.label</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>피의 제례</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>혈류 폭풍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>혈액정수가 너무 적습니다. 최소 {0}(이)가 필요합니다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Launches a pressurized spear of blood over to the target, damaging the target and creating a bloodmist explosion. Damage depends on the caster's hemogen level.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>대상을 향해 응축된 피의 창을 발사하여 피해를 입히고 핏빛안개 폭발을 일으킵니다. 데미지는 시전자의 혈액정수 수준에 따라 달라집니다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>생귄의 창</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>혈정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤모세이지</t>
-  </si>
-  <si>
-    <t>헤모세이지는 내면의 악성과 피의 저주를 융합시켜, 끔찍하고 사악한 방식으로 고통을 주거나 물질을 조작하는 강력하고 노련한 초능력자입니다. 주변으로부터 혈액 정수를 빼앗아 극도의 고통과 악몽을 심어줄 수 있습니다. 정수의 힘에 닿을 수 있는 자들만이 헤모세이지가 될 자격이 있습니다.</t>
-  </si>
-  <si>
-    <t>흡혈종 전용</t>
-  </si>
-  <si>
-    <t>혈액 정수를 사용하여 시체의 혈액을 자극시켜, 피해를 입히지는 않지만 구토를 유발하는 짙은 안개를 덮습니다. 영향을 받은 사람들이 심한 구토로 고통을 받게 만듭니다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>먼 거리에서 대상의 혈액을 강제로 추출하여 혈액 정수로 변환시킵니다. 실용적이나 비효율적입니다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>대상에게 혈액 정수의 미세한 안개를 내뿜어 끈적끈적하고 구역질나는 피를 묻힙니다. 영향을 받은 사람들이 심한 구토로 고통을 받게 만듭니다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>많은 혈액을 강제로 이동시켜 진행 중인 출혈을 막습니다. 하지만 치료 효과는 없습니다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>봉합</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈액술사는 혈마법의 대가로, 혈액정수를 소모해 독특한 초능력을 사용합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -738,8 +1012,28 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -786,6 +1080,11 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF87CEEB"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -826,38 +1125,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="3" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="메모" xfId="3" builtinId="10"/>
-    <cellStyle name="보통" xfId="1" builtinId="28"/>
-    <cellStyle name="셀 확인" xfId="2" builtinId="23"/>
-    <cellStyle name="좋음" xfId="4" builtinId="26"/>
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1157,11 +1442,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1195,7 +1480,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>173</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -1203,920 +1488,922 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>183</v>
+        <v>10</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>216</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>149</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>148</v>
+        <v>217</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>199</v>
+        <v>21</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>155</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>159</v>
+        <v>26</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>159</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>161</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>161</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G7" t="s">
         <v>205</v>
-      </c>
-      <c r="G7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>207</v>
+        <v>37</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>165</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>206</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
-        <v>164</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>186</v>
+        <v>47</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>169</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G11" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>167</v>
+        <v>55</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="G12" t="s">
-        <v>167</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="G13" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>172</v>
+        <v>62</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="G14" t="s">
-        <v>172</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>171</v>
+        <v>67</v>
       </c>
       <c r="G15" t="s">
-        <v>171</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>198</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s">
-        <v>156</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>196</v>
+        <v>76</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="G17" t="s">
-        <v>170</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>185</v>
+        <v>79</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="G18" t="s">
-        <v>153</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>63</v>
+        <v>219</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="G19" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>194</v>
+        <v>86</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="G20" t="s">
-        <v>163</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>162</v>
+        <v>211</v>
       </c>
       <c r="G21" t="s">
-        <v>162</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>199</v>
+        <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>155</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="G23" t="s">
         <v>71</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G23" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>192</v>
+        <v>94</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>161</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>161</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>183</v>
+        <v>98</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>216</v>
       </c>
       <c r="G25" t="s">
-        <v>149</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>148</v>
+        <v>217</v>
       </c>
       <c r="G26" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>184</v>
+        <v>103</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="G27" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="G28" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>193</v>
+        <v>79</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="G29" t="s">
-        <v>153</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="G30" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="G31" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>200</v>
+        <v>121</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="G32" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>96</v>
+        <v>221</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E33" s="5"/>
+        <v>223</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>224</v>
+      </c>
       <c r="G33" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>201</v>
+        <v>125</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>202</v>
+        <v>128</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="E36" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="G36" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="G37" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="G38" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="G39" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>194</v>
+        <v>86</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>214</v>
       </c>
       <c r="G40" t="s">
-        <v>163</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="E41" t="s">
-        <v>162</v>
+        <v>211</v>
       </c>
       <c r="G41" t="s">
-        <v>162</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="E42" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="G42" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="E43" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="G43" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="G44" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="E45" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="G45" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="G46" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="G47" t="s">
         <v>174</v>
@@ -2124,63 +2411,166 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G48" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>137</v>
+        <v>183</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="G49" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E50" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>187</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>189</v>
+      </c>
+      <c r="D52" s="10" t="s">
         <v>190</v>
       </c>
+      <c r="E52" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>191</v>
+      </c>
+      <c r="B53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" t="s">
+        <v>192</v>
+      </c>
+      <c r="D53" t="s">
+        <v>193</v>
+      </c>
+      <c r="E53" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>194</v>
+      </c>
+      <c r="B54" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" t="s">
+        <v>193</v>
+      </c>
+      <c r="E54" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>195</v>
+      </c>
+      <c r="B55" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" t="s">
+        <v>196</v>
+      </c>
+      <c r="D55" t="s">
+        <v>193</v>
+      </c>
+      <c r="E55" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>197</v>
+      </c>
+      <c r="B56" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" t="s">
+        <v>193</v>
+      </c>
+      <c r="E56" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>198</v>
+      </c>
+      <c r="B57" t="s">
+        <v>150</v>
+      </c>
+      <c r="C57" t="s">
+        <v>199</v>
+      </c>
+      <c r="D57" t="s">
+        <v>200</v>
+      </c>
+      <c r="E57" t="s">
+        <v>202</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>